--- a/testit.xlsx
+++ b/testit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A38F43-6660-4658-BE75-C98B311A1B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F3E95-7A9A-4025-95D2-01965E5802A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="735" windowWidth="25860" windowHeight="12390" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24525" yWindow="5985" windowWidth="21600" windowHeight="11385" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G1" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -124,6 +124,11 @@
   </si>
   <si>
     <t>Six</t>
+  </si>
+  <si>
+    <t>* do this
+* do that
+* and this and that</t>
   </si>
 </sst>
 </file>
@@ -185,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -196,6 +201,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,17 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184CACB6-F99E-4C0C-883B-A073A66A974F}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
@@ -534,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -556,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -576,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
@@ -600,13 +608,28 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33F8E10-6F2B-46E4-B593-C41A35710CA3}">
   <dimension ref="B3:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testit.xlsx
+++ b/testit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F3E95-7A9A-4025-95D2-01965E5802A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB840E2-3E3E-4871-987D-FEA46C090126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24525" yWindow="5985" windowWidth="21600" windowHeight="11385" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -82,11 +82,6 @@
   </si>
   <si>
     <t>t1</t>
-  </si>
-  <si>
-    <t>do this
-do that
-and this and that</t>
   </si>
   <si>
     <t>P</t>
@@ -487,7 +482,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -513,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -542,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -564,10 +559,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -584,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
@@ -593,7 +588,7 @@
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -608,13 +603,13 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -640,17 +635,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A37B09-C095-48EF-9951-3AAF0C506CDF}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
@@ -660,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -669,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -683,7 +678,7 @@
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -698,18 +693,18 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -720,16 +715,16 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -740,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
@@ -749,7 +744,7 @@
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -764,13 +759,28 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -780,17 +790,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33F8E10-6F2B-46E4-B593-C41A35710CA3}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
@@ -800,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -809,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -823,7 +833,7 @@
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -838,18 +848,18 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -860,16 +870,16 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -880,16 +890,16 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -904,13 +914,28 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testit.xlsx
+++ b/testit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB840E2-3E3E-4871-987D-FEA46C090126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AC2430-41E4-4602-9181-F1D877BE4F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24525" yWindow="5985" windowWidth="21600" windowHeight="11385" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="2010" windowWidth="21600" windowHeight="11385" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G1" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>One</t>
   </si>
   <si>
     <t>This is a spec</t>
@@ -94,36 +91,39 @@
     <t>p</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>Spec Description</t>
   </si>
   <si>
     <t>Case Description</t>
   </si>
   <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Six</t>
   </si>
   <si>
     <t>* do this
 * do that
 * and this and that</t>
+  </si>
+  <si>
+    <t>g1.1One</t>
+  </si>
+  <si>
+    <t>g2.1One</t>
+  </si>
+  <si>
+    <t>g2.2Two</t>
+  </si>
+  <si>
+    <t>g3.1One</t>
+  </si>
+  <si>
+    <t>g3.2Two</t>
+  </si>
+  <si>
+    <t>g3.3Three</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,17 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -479,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184CACB6-F99E-4C0C-883B-A073A66A974F}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,135 +485,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -635,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A37B09-C095-48EF-9951-3AAF0C506CDF}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,135 +575,109 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+      <c r="G12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -790,10 +688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33F8E10-6F2B-46E4-B593-C41A35710CA3}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,28 +704,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -836,105 +734,145 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+      <c r="G12" t="s">
         <v>0</v>
       </c>
     </row>
